--- a/src/logs/train/resultados_finales.xlsx
+++ b/src/logs/train/resultados_finales.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4905114513829359</v>
+        <v>0.390511451382936</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5047185062880918</v>
+        <v>0.4047185062880918</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2389650943587642</v>
+        <v>0.1389650943587642</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.407071265566137</v>
+        <v>0.3070712655661371</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4617656655273909</v>
+        <v>0.3617656655273909</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.478925739776043</v>
+        <v>0.378925739776043</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7496785058175137</v>
+        <v>0.6496785058175137</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3427842092282247</v>
+        <v>0.2427842092282247</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7096495812565968</v>
+        <v>0.6096495812565969</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7554964613918466</v>
+        <v>0.6554964613918466</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6637337632826424</v>
+        <v>0.5637337632826425</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3858031917464451</v>
+        <v>0.2858031917464451</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3751834954491601</v>
+        <v>0.2751834954491601</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2852572332168883</v>
+        <v>0.1852572332168883</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5715545754184895</v>
+        <v>0.4715545754184896</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4225902404076966</v>
+        <v>0.3225902404076966</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7183621816408566</v>
+        <v>0.6183621816408567</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2646003645767095</v>
+        <v>0.1646003645767095</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3552006017397351</v>
+        <v>0.255200601739735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6726686842463021</v>
+        <v>0.5726686842463021</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4749135354230896</v>
+        <v>0.3749135354230896</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8560821281244404</v>
+        <v>0.7560821281244404</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3109000675451704</v>
+        <v>0.2109000675451704</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3963166781314489</v>
+        <v>0.2963166781314489</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4333446718364518</v>
+        <v>0.3333446718364518</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3709317596036833</v>
+        <v>0.2709317596036833</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3824625231264975</v>
+        <v>0.2824625231264976</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3613403248076796</v>
+        <v>0.2613403248076797</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6382568991367958</v>
+        <v>0.5382568991367959</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5811491036680743</v>
+        <v>0.4811491036680743</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4943875037031274</v>
+        <v>0.3943875037031274</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.7613480787951485</v>
+        <v>0.6613480787951486</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8730356584846372</v>
+        <v>0.7730356584846372</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.8133754565633186</v>
+        <v>0.7133754565633186</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.672295903198408</v>
+        <v>0.5722959031984081</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4300559552358114</v>
+        <v>0.3300559552358113</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.7063277864281882</v>
+        <v>0.6063277864281882</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8246142388364412</v>
+        <v>0.7246142388364413</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.6049040072522014</v>
+        <v>0.5049040072522014</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6953541074151365</v>
+        <v>0.5953541074151365</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4626534163766258</v>
+        <v>0.3626534163766257</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.727221342625661</v>
+        <v>0.627221342625661</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2722504272897169</v>
+        <v>0.1722504272897169</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.7800001351584267</v>
+        <v>0.6800001351584267</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.7639260352129997</v>
+        <v>0.6639260352129998</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.5791098146163528</v>
+        <v>0.4791098146163528</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.4541149392577695</v>
+        <v>0.3541149392577695</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.4899113894953106</v>
+        <v>0.3899113894953106</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.5441847861296647</v>
+        <v>0.4441847861296647</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5315059861642412</v>
+        <v>0.4315059861642412</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.733409497637544</v>
+        <v>0.583409497637544</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3776423815372681</v>
+        <v>0.2276423815372681</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.4731892414137007</v>
+        <v>0.3231892414137006</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.387833801568485</v>
+        <v>0.237833801568485</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.481421497236311</v>
+        <v>0.331421497236311</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.4785820131685483</v>
+        <v>0.3285820131685483</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.1648148148148148</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2630973626116443</v>
+        <v>0.1130973626116444</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.6080087843616819</v>
+        <v>0.4580087843616819</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.7920176594661095</v>
+        <v>0.6420176594661094</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6144873481400316</v>
+        <v>0.4644873481400316</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3111592267796282</v>
+        <v>0.1611592267796282</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3872504608578399</v>
+        <v>0.2372504608578399</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.5406059241003923</v>
+        <v>0.3906059241003923</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4949732934916506</v>
+        <v>0.3449732934916506</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3462817968775548</v>
+        <v>0.1962817968775548</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4565215657800211</v>
+        <v>0.3065215657800211</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3148236466149477</v>
+        <v>0.1648236466149477</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1804666459498654</v>
+        <v>0.03046664594986537</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2964767389911867</v>
+        <v>0.1464767389911867</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1942518662263885</v>
+        <v>0.04425186622638852</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.6937633706726847</v>
+        <v>0.5437633706726847</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1980448152441367</v>
+        <v>0.0480448152441367</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.8345443954399923</v>
+        <v>0.6845443954399922</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.3289272304571861</v>
+        <v>0.1789272304571861</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.3718380758797794</v>
+        <v>0.2218380758797794</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.399994612986464</v>
+        <v>0.249994612986464</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2365288050328543</v>
+        <v>0.08652880503285432</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.4992244819713842</v>
+        <v>0.3492244819713842</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.4351528587298364</v>
+        <v>0.2851528587298364</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.5344423981451671</v>
+        <v>0.3844423981451671</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.4453878440249422</v>
+        <v>0.2953878440249422</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.8027873557457907</v>
+        <v>0.6527873557457907</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.7930327271593431</v>
+        <v>0.6430327271593431</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.2281217355525029</v>
+        <v>0.0781217355525029</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4895391379204329</v>
+        <v>0.3395391379204329</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.07730346068278314</v>
+        <v>-0.07269653931721685</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.4135587447556237</v>
+        <v>0.2635587447556237</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.4829299985729421</v>
+        <v>0.332929998572942</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.8067235450817059</v>
+        <v>0.6567235450817058</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.3272544683746369</v>
+        <v>0.1772544683746369</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.4609031707394177</v>
+        <v>0.3109031707394178</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.4533643574497505</v>
+        <v>0.3033643574497505</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.162070438400313</v>
+        <v>0.01207043840031302</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.8327087749483695</v>
+        <v>0.6827087749483695</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.07292465909264123</v>
+        <v>-0.07707534090735876</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.2147186016829614</v>
+        <v>0.0647186016829614</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.3273930304918292</v>
+        <v>0.1773930304918292</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.331030910928229</v>
+        <v>0.181030910928229</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.7396894422750759</v>
+        <v>0.5896894422750759</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.8924155891006049</v>
+        <v>0.8424155891006049</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.284489352570246</v>
+        <v>0.2344893525702461</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.607336593963277</v>
+        <v>0.5573365939632769</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.4936673012476597</v>
+        <v>0.4436673012476597</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.5954148805878751</v>
+        <v>0.545414880587875</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.3164011511787</v>
+        <v>0.2664011511787001</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.5402328013866837</v>
+        <v>0.4902328013866837</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.9459598041143698</v>
+        <v>0.8959598041143697</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.7695895303792244</v>
+        <v>0.7195895303792244</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.4767982199024641</v>
+        <v>0.4267982199024641</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.3439794358752361</v>
+        <v>0.2939794358752361</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.5937281216279772</v>
+        <v>0.5437281216279771</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.9706619176738464</v>
+        <v>0.9206619176738463</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.4320435710821158</v>
+        <v>0.3820435710821158</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.7541786996242894</v>
+        <v>0.7041786996242894</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.8182875706627243</v>
+        <v>0.7682875706627242</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.4824988421213052</v>
+        <v>0.4324988421213052</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.6947197486656151</v>
+        <v>0.6447197486656151</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.4963692702546206</v>
+        <v>0.4463692702546206</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.7077549887595085</v>
+        <v>0.6577549887595084</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.4689676060165714</v>
+        <v>0.4189676060165714</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.4504330560940529</v>
+        <v>0.4004330560940529</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.4144784712136018</v>
+        <v>0.3644784712136018</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.4670924071104947</v>
+        <v>0.4170924071104947</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.4557828445140959</v>
+        <v>0.4057828445140959</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.9642088740849133</v>
+        <v>0.9142088740849132</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.9002845769013004</v>
+        <v>0.8502845769013003</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.8224119512094887</v>
+        <v>0.7724119512094887</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.8003640034500609</v>
+        <v>0.7503640034500608</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.9426770874849297</v>
+        <v>0.8926770874849297</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.9693578543629231</v>
+        <v>0.9193578543629231</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.9676290511494836</v>
+        <v>0.9176290511494836</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.7536741426050922</v>
+        <v>0.7036741426050922</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.4998385906659288</v>
+        <v>0.4498385906659288</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.9447962467861499</v>
+        <v>0.8947962467861499</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.8562860993755844</v>
+        <v>0.8062860993755844</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.6342654814702818</v>
+        <v>0.5842654814702818</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.9331173880608468</v>
+        <v>0.8831173880608467</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.4790712584722477</v>
+        <v>0.4290712584722477</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.9451408785031969</v>
+        <v>0.8951408785031969</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.2568400007797885</v>
+        <v>0.2068400007797885</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.742585885127145</v>
+        <v>0.6925858851271449</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.900161548165203</v>
+        <v>0.850161548165203</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.3212030719192551</v>
+        <v>0.2712030719192551</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.6299368967277168</v>
+        <v>0.5799368967277168</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.8663684171454161</v>
+        <v>0.8163684171454161</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.5251936695373057</v>
+        <v>0.4751936695373057</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.7149846130138926</v>
+        <v>0.6649846130138926</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.4234570965764807</v>
+        <v>0.2234570965764807</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.477660990741548</v>
+        <v>0.277660990741548</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.2214091827570921</v>
+        <v>0.02140918275709207</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.2987497796958465</v>
+        <v>0.09874977969584649</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.4409372148910576</v>
+        <v>0.2409372148910576</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.478523674329151</v>
+        <v>0.278523674329151</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.2529830771411782</v>
+        <v>0.05298307714117818</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.3067809295629741</v>
+        <v>0.1067809295629742</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.5243826426459219</v>
+        <v>0.3243826426459219</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.7278242399619396</v>
+        <v>0.5278242399619396</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.5884947699576469</v>
+        <v>0.3884947699576469</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.3169264885673936</v>
+        <v>0.1169264885673936</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.3369062683927201</v>
+        <v>0.1369062683927201</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.2773201717633872</v>
+        <v>0.07732017176338725</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.5149614915448909</v>
+        <v>0.3149614915448909</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.3915168234693516</v>
+        <v>0.1915168234693516</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.6170911258325629</v>
+        <v>0.4170911258325629</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.2476304515337231</v>
+        <v>0.0476304515337231</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.3168871516684705</v>
+        <v>0.1168871516684705</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.2735327813553595</v>
+        <v>0.07353278135535947</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.4631215090193206</v>
+        <v>0.2631215090193206</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.8113734414683773</v>
+        <v>0.6113734414683774</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.2801261928181479</v>
+        <v>0.08012619281814794</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.3916630616154749</v>
+        <v>0.1916630616154749</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.4175204061213922</v>
+        <v>0.2175204061213922</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.3357854965631291</v>
+        <v>0.1357854965631291</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.3692515945170678</v>
+        <v>0.1692515945170678</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.3444884974612926</v>
+        <v>0.1444884974612926</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.6034950157179078</v>
+        <v>0.4034950157179077</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.5423022920298596</v>
+        <v>0.3423022920298596</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.2916176913682173</v>
+        <v>0.0916176913682173</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.7243107024796319</v>
+        <v>0.524310702479632</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.7808827659979092</v>
+        <v>0.5808827659979092</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.7003768600978935</v>
+        <v>0.5003768600978935</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.53017858877039</v>
+        <v>0.33017858877039</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.4272123387035199</v>
+        <v>0.2272123387035199</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.6898893238478567</v>
+        <v>0.4898893238478567</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.5339384763777952</v>
+        <v>0.3339384763777952</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.5388222495191802</v>
+        <v>0.3388222495191802</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.6233771449313873</v>
+        <v>0.4233771449313873</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.4624557495117188</v>
+        <v>0.2624557495117187</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.699275510136359</v>
+        <v>0.499275510136359</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.2524223830828168</v>
+        <v>0.05242238308281684</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.674542125347833</v>
+        <v>0.474542125347833</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.6784249459316616</v>
+        <v>0.4784249459316616</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.532488430574069</v>
+        <v>0.332488430574069</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.3696624391172076</v>
+        <v>0.1696624391172076</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.3543488293893538</v>
+        <v>0.1543488293893538</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.4909241197251555</v>
+        <v>0.2909241197251555</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.4839886736103938</v>
+        <v>0.2839886736103938</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.6872504780883871</v>
+        <v>0.4872504780883871</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.3653605603852649</v>
+        <v>0.1653605603852649</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.4647662049437514</v>
+        <v>0.2647662049437514</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.3023808649788274</v>
+        <v>0.1023808649788274</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.4556905080970784</v>
+        <v>0.2556905080970784</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.4780197143554688</v>
+        <v>0.2780197143554687</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.001327424990727546</v>
+        <v>-0.1986725750092724</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.2551697009107377</v>
+        <v>0.05516970091073771</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.5739165159194569</v>
+        <v>0.3739165159194569</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.7651074988208046</v>
+        <v>0.5651074988208047</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.5512446017660632</v>
+        <v>0.3512446017660631</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.2354413189998964</v>
+        <v>0.0354413189998964</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.3396843819577052</v>
+        <v>0.1396843819577052</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.5220169607987492</v>
+        <v>0.3220169607987491</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.4068579755080206</v>
+        <v>0.2068579755080206</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.3115834883622997</v>
+        <v>0.1115834883622997</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.37017212710415</v>
+        <v>0.17017212710415</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.3036021810339982</v>
+        <v>0.1036021810339982</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.1586795752431691</v>
+        <v>-0.04132042475683086</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.03457020438714431</v>
+        <v>-0.1654297956128557</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.1894026092927443</v>
+        <v>-0.01059739070725567</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.6504912503645209</v>
+        <v>0.4504912503645209</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.1593962524702066</v>
+        <v>-0.04060374752979336</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.5832350143813059</v>
+        <v>0.3832350143813059</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.3173851279535606</v>
+        <v>0.1173851279535606</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.3382975203320601</v>
+        <v>0.1382975203320601</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.3851778855697228</v>
+        <v>0.1851778855697228</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.2338382018755367</v>
+        <v>0.03383820187553672</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.4480908507875925</v>
+        <v>0.2480908507875925</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.2640844837113154</v>
+        <v>0.06408448371131538</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.5038807426089597</v>
+        <v>0.3038807426089596</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.2679024373074013</v>
+        <v>0.06790243730740127</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.7574632400527708</v>
+        <v>0.5574632400527708</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.5199684759730491</v>
+        <v>0.3199684759730491</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.1080106401248729</v>
+        <v>-0.09198935987512706</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.4859237670898438</v>
+        <v>0.2859237670898437</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.06521156407269393</v>
+        <v>-0.134788435927306</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.4076080322265625</v>
+        <v>0.2076080322265625</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.4115961529516941</v>
+        <v>0.2115961529516941</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.6811691554712311</v>
+        <v>0.4811691554712311</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.3092936223199729</v>
+        <v>0.1092936223199729</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.4455913814180929</v>
+        <v>0.2455913814180929</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.3683892081906991</v>
+        <v>0.1683892081906991</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.08181255577253463</v>
+        <v>-0.1181874442274654</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.761075621381099</v>
+        <v>0.561075621381099</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.03746702897323857</v>
+        <v>-0.1625329710267615</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.1622775897479808</v>
+        <v>-0.03772241025201924</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.2677356824242696</v>
+        <v>0.06773568242426965</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.2221103104011606</v>
+        <v>0.02211031040116061</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.731000681836487</v>
+        <v>0.5310006818364871</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0.8439849093168201</v>
+        <v>0.9139849093168202</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.4726533854803227</v>
+        <v>0.5426533854803227</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0.2677465921311017</v>
+        <v>0.3377465921311018</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0.5191570136623135</v>
+        <v>0.5891570136623135</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0.4787896359141819</v>
+        <v>0.548789635914182</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0.4994125366210938</v>
+        <v>0.5694125366210938</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.09745084936968709</v>
+        <v>0.1674508493696871</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.3070899793940319</v>
+        <v>0.3770899793940319</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0.5058809106484964</v>
+        <v>0.5758809106484964</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0.8730764094341747</v>
+        <v>0.9430764094341748</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0.7277197608403362</v>
+        <v>0.7977197608403362</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0.4450197879747533</v>
+        <v>0.5150197879747532</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0.2795615880421506</v>
+        <v>0.3495615880421506</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0.485932240712196</v>
+        <v>0.555932240712196</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0.8770122376649069</v>
+        <v>0.9470122376649069</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.4031154043614327</v>
+        <v>0.4731154043614327</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0.6948041923167469</v>
+        <v>0.764804192316747</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.749384301903368</v>
+        <v>0.8193843019033681</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0.4364250917797844</v>
+        <v>0.5064250917797845</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0.2485024003498774</v>
+        <v>0.3185024003498774</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.4839706420898438</v>
+        <v>0.5539706420898438</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0.6760542619186862</v>
+        <v>0.7460542619186863</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0.4093074158729415</v>
+        <v>0.4793074158729415</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0.4401524641755019</v>
+        <v>0.5101524641755019</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0.4031332675657666</v>
+        <v>0.4731332675657666</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0.4214712422595044</v>
+        <v>0.4914712422595044</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0.4363366679905339</v>
+        <v>0.5063366679905339</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0.9554000455802731</v>
+        <v>1.025400045580273</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0.8640435734032602</v>
+        <v>0.9340435734032603</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0.7720475812690145</v>
+        <v>0.8420475812690146</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0.7607615076036663</v>
+        <v>0.8307615076036664</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0.9021377165928497</v>
+        <v>0.9721377165928498</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0.8976520570377422</v>
+        <v>0.9676520570377423</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0.9550602193442153</v>
+        <v>1.025060219344215</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0.5842560036299007</v>
+        <v>0.6542560036299008</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0.4961471557617188</v>
+        <v>0.5661471557617188</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0.8836275677998815</v>
+        <v>0.9536275677998816</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0.7246934900841364</v>
+        <v>0.7946934900841365</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>0.5793543688289787</v>
+        <v>0.6493543688289788</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0.8299250507192388</v>
+        <v>0.8999250507192389</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0.4788665771484375</v>
+        <v>0.5488665771484376</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0.8908416670014014</v>
+        <v>0.9608416670014015</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0.2216060828118308</v>
+        <v>0.2916060828118309</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0.6083501452281569</v>
+        <v>0.678350145228157</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0.8748986511056851</v>
+        <v>0.9448986511056852</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0.2855254087312611</v>
+        <v>0.3555254087312611</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0.5794447478655159</v>
+        <v>0.649444747865516</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0.7931539538526774</v>
+        <v>0.8631539538526775</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0.4662087097638228</v>
+        <v>0.5362087097638228</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0.6757140213030033</v>
+        <v>0.7457140213030033</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0.5439107712972531</v>
+        <v>0.3439107712972531</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0.5075459306410375</v>
+        <v>0.3075459306410375</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0.4945393102435165</v>
+        <v>0.2945393102435165</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0.3915156914089213</v>
+        <v>0.1915156914089213</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0.5022066737137655</v>
+        <v>0.3022066737137655</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0.5001429605634462</v>
+        <v>0.3001429605634462</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0.5024795371021157</v>
+        <v>0.3024795371021157</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0.3429221421379956</v>
+        <v>0.1429221421379956</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0.5909612018701509</v>
+        <v>0.3909612018701509</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0.7310200586446609</v>
+        <v>0.531020058644661</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0.5664965910475943</v>
+        <v>0.3664965910475943</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0.3739947073297269</v>
+        <v>0.1739947073297269</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0.3861917054375261</v>
+        <v>0.1861917054375261</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0.3442706384958985</v>
+        <v>0.1442706384958985</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0.5512833538964569</v>
+        <v>0.3512833538964569</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0.4123722635931994</v>
+        <v>0.2123722635931994</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0.6822869183538035</v>
+        <v>0.4822869183538035</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0.335171711926374</v>
+        <v>0.135171711926374</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0.3301363566826156</v>
+        <v>0.1301363566826156</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0.5119127209186658</v>
+        <v>0.3119127209186658</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0.4994640358508126</v>
+        <v>0.2994640358508125</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0.8215889290683691</v>
+        <v>0.6215889290683692</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0.301382698620334</v>
+        <v>0.101382698620334</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0.5036532724942386</v>
+        <v>0.3036532724942386</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0.4174459943236455</v>
+        <v>0.2174459943236455</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0.3557836429272404</v>
+        <v>0.1557836429272404</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0.3828640481559911</v>
+        <v>0.1828640481559911</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0.5030054748951228</v>
+        <v>0.3030054748951228</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>0.6574484703781971</v>
+        <v>0.4574484703781971</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0.6283251666809528</v>
+        <v>0.4283251666809528</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0.366343986484769</v>
+        <v>0.166343986484769</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0.7116532135772857</v>
+        <v>0.5116532135772858</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0.8058414358720352</v>
+        <v>0.6058414358720352</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0.7342054950847442</v>
+        <v>0.5342054950847442</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0.5963386965907169</v>
+        <v>0.3963386965907169</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0.4998735233656346</v>
+        <v>0.2998735233656346</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0.6753247878948321</v>
+        <v>0.4753247878948321</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0.5696307104483308</v>
+        <v>0.3696307104483308</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0.5833851394271071</v>
+        <v>0.3833851394271071</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0.5989275254057889</v>
+        <v>0.3989275254057889</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0.4999840511852977</v>
+        <v>0.2999840511852977</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0.6983751220395343</v>
+        <v>0.4983751220395343</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>0.5521190030125881</v>
+        <v>0.3521190030125881</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0.7658156677258876</v>
+        <v>0.5658156677258876</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0.7204309042426154</v>
+        <v>0.5204309042426154</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0.5485163006389699</v>
+        <v>0.3485163006389699</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0.4271498268042644</v>
+        <v>0.2271498268042644</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0.4215029656141387</v>
+        <v>0.2215029656141387</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0.5279266422139799</v>
+        <v>0.3279266422139799</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0.6046592277858762</v>
+        <v>0.4046592277858762</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0.7912504399358089</v>
+        <v>0.5412504399358089</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0.5049986413054166</v>
+        <v>0.2549986413054166</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0.5009571665360704</v>
+        <v>0.2509571665360704</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0.3904426712573306</v>
+        <v>0.1404426712573306</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0.5033539043904053</v>
+        <v>0.2533539043904053</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0.4999748663222618</v>
+        <v>0.2499748663222618</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0.4997994957180401</v>
+        <v>0.2497994957180401</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0.3319679476453264</v>
+        <v>0.08196794764532639</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0.6024339088725239</v>
+        <v>0.3524339088725239</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0.7544063046722158</v>
+        <v>0.5044063046722158</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0.5381423255550153</v>
+        <v>0.2881423255550153</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0.3195542503233521</v>
+        <v>0.06955425032335205</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0.3809755487467722</v>
+        <v>0.1309755487467722</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0.5568799687119805</v>
+        <v>0.3068799687119805</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0.5055661491065139</v>
+        <v>0.2555661491065139</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0.3479616739526865</v>
+        <v>0.09796167395268651</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0.5377101626220829</v>
+        <v>0.2877101626220829</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0.3341206356728234</v>
+        <v>0.08412063567282341</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0.2493510684920599</v>
+        <v>-0.0006489315079401259</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0.4992192770816286</v>
+        <v>0.2492192770816286</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0.4928421680324226</v>
+        <v>0.2428421680324226</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0.6661562818678749</v>
+        <v>0.4161562818678749</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0.2419559383050816</v>
+        <v>-0.00804406169491842</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0.7047283679695964</v>
+        <v>0.4547283679695964</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0.3346564634383773</v>
+        <v>0.08465646343837729</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0.3904089781138244</v>
+        <v>0.1404089781138244</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0.398385918494955</v>
+        <v>0.148385918494955</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0.5143640582960795</v>
+        <v>0.2643640582960795</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0.5109162933825508</v>
+        <v>0.2609162933825508</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0.4894872090395188</v>
+        <v>0.2394872090395188</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0.5053727772379026</v>
+        <v>0.2553727772379026</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0.4970892523175647</v>
+        <v>0.2470892523175647</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0.7776499999572994</v>
+        <v>0.5276499999572994</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0.647582274912084</v>
+        <v>0.397582274912084</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0.3342400164100068</v>
+        <v>0.08424001641000683</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0.4999233265336903</v>
+        <v>0.2499233265336903</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0.4967856891401384</v>
+        <v>0.2467856891401384</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0.4987777666167849</v>
+        <v>0.2487777666167849</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0.4757458195398067</v>
+        <v>0.2257458195398067</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0.652784913673094</v>
+        <v>0.402784913673094</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0.4999194647736382</v>
+        <v>0.2499194647736382</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0.4994005533707646</v>
+        <v>0.2494005533707646</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0.4935760812823068</v>
+        <v>0.2435760812823068</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0.4531083502665307</v>
+        <v>0.2031083502665307</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0.8030628188904791</v>
+        <v>0.5530628188904791</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0.325872448549893</v>
+        <v>0.075872448549893</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0.3138286010124459</v>
+        <v>0.06382860101244586</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0.3614162090375033</v>
+        <v>0.1114162090375033</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0.3330090973761621</v>
+        <v>0.08300909737616213</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0.7764673412863378</v>
+        <v>0.5264673412863378</v>
       </c>
       <c r="C601" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0.8639379822788378</v>
+        <v>0.9339379822788378</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>0.5005769694646977</v>
+        <v>0.5705769694646977</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0.4954479593461166</v>
+        <v>0.5654479593461166</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0.5877039078486485</v>
+        <v>0.6577039078486485</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0.4998295859228133</v>
+        <v>0.5698295859228134</v>
       </c>
       <c r="C706" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0.5</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0.5007024973189058</v>
+        <v>0.5707024973189059</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0.3329488731744246</v>
+        <v>0.4029488731744246</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0.5445645333547875</v>
+        <v>0.6145645333547876</v>
       </c>
       <c r="C710" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0.8753028100684124</v>
+        <v>0.9453028100684124</v>
       </c>
       <c r="C711" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0.7119460924145256</v>
+        <v>0.7819460924145256</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0.4611665829158072</v>
+        <v>0.5311665829158072</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0.3360130523494277</v>
+        <v>0.4060130523494276</v>
       </c>
       <c r="C714" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0.4899357522018513</v>
+        <v>0.5599357522018513</v>
       </c>
       <c r="C715" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0.8888013277864173</v>
+        <v>0.9588013277864174</v>
       </c>
       <c r="C716" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0.4125735487891134</v>
+        <v>0.4825735487891134</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0.7585029093851706</v>
+        <v>0.8285029093851707</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0.7478036406766618</v>
+        <v>0.8178036406766619</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0.4377389901202228</v>
+        <v>0.5077389901202227</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0.5112584837141131</v>
+        <v>0.5812584837141131</v>
       </c>
       <c r="C721" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>0.4999115907999069</v>
+        <v>0.5699115907999069</v>
       </c>
       <c r="C722" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>0.6980420504289695</v>
+        <v>0.7680420504289696</v>
       </c>
       <c r="C723" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>0.4185257774514536</v>
+        <v>0.4885257774514535</v>
       </c>
       <c r="C724" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0.499421147581965</v>
+        <v>0.569421147581965</v>
       </c>
       <c r="C725" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0.4134531490544773</v>
+        <v>0.4834531490544772</v>
       </c>
       <c r="C726" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0.4263373192952205</v>
+        <v>0.4963373192952204</v>
       </c>
       <c r="C727" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="B728" t="n">
-        <v>0.4413367978200303</v>
+        <v>0.5113367978200303</v>
       </c>
       <c r="C728" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>0.9634998118828819</v>
+        <v>1.033499811882882</v>
       </c>
       <c r="C729" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>0.8808544030955785</v>
+        <v>0.9508544030955786</v>
       </c>
       <c r="C730" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>0.7906564097434361</v>
+        <v>0.8606564097434362</v>
       </c>
       <c r="C731" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>0.7618943513543125</v>
+        <v>0.8318943513543126</v>
       </c>
       <c r="C732" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="B733" t="n">
-        <v>0.9009984896462959</v>
+        <v>0.970998489646296</v>
       </c>
       <c r="C733" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>0.9106801527570215</v>
+        <v>0.9806801527570216</v>
       </c>
       <c r="C734" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>0.9615986361234359</v>
+        <v>1.031598636123436</v>
       </c>
       <c r="C735" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>0.6618961429173272</v>
+        <v>0.7318961429173273</v>
       </c>
       <c r="C736" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>0.4999988167574909</v>
+        <v>0.5699988167574909</v>
       </c>
       <c r="C737" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>0.8783499875209335</v>
+        <v>0.9483499875209336</v>
       </c>
       <c r="C738" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>0.7076201060958854</v>
+        <v>0.7776201060958855</v>
       </c>
       <c r="C739" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="B740" t="n">
-        <v>0.6092107312868283</v>
+        <v>0.6792107312868284</v>
       </c>
       <c r="C740" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>0.8276949718359312</v>
+        <v>0.8976949718359313</v>
       </c>
       <c r="C741" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>0.4999910622640716</v>
+        <v>0.5699910622640717</v>
       </c>
       <c r="C742" t="inlineStr">
         <is>
@@ -11572,7 +11572,7 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>0.8901073250237287</v>
+        <v>0.9601073250237288</v>
       </c>
       <c r="C743" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         </is>
       </c>
       <c r="B744" t="n">
-        <v>0.4895880260280842</v>
+        <v>0.5595880260280842</v>
       </c>
       <c r="C744" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>0.7152885352351994</v>
+        <v>0.7852885352351995</v>
       </c>
       <c r="C745" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="B746" t="n">
-        <v>0.8904822862730608</v>
+        <v>0.9604822862730609</v>
       </c>
       <c r="C746" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         </is>
       </c>
       <c r="B747" t="n">
-        <v>0.3353733505303753</v>
+        <v>0.4053733505303753</v>
       </c>
       <c r="C747" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         </is>
       </c>
       <c r="B748" t="n">
-        <v>0.5996408428515574</v>
+        <v>0.6696408428515574</v>
       </c>
       <c r="C748" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="B749" t="n">
-        <v>0.80933100322666</v>
+        <v>0.87933100322666</v>
       </c>
       <c r="C749" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         </is>
       </c>
       <c r="B750" t="n">
-        <v>0.510423095411206</v>
+        <v>0.5804230954112061</v>
       </c>
       <c r="C750" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>0.7431220144672033</v>
+        <v>0.8131220144672033</v>
       </c>
       <c r="C751" t="inlineStr">
         <is>
